--- a/Annat/Import variabler sotvatten.xlsx
+++ b/Annat/Import variabler sotvatten.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sner0004\OneDrive - Sveriges Lantbruksuniversitet\Documents\R-Projekt\vattenmiljo-ny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claudia\Documents\Projekt\Sveriges Vattenmiljö\Annat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="74">
   <si>
     <t>Namn</t>
   </si>
@@ -254,12 +254,18 @@
   <si>
     <t>m3/s</t>
   </si>
+  <si>
+    <t>mg/l O2</t>
+  </si>
+  <si>
+    <t>Syrgashalt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,8 +418,13 @@
       <color rgb="FF7030A0"/>
       <name val="Calibri (Brödtext)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +602,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -754,7 +770,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -762,6 +778,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1083,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1697,6 +1716,23 @@
         <v>41</v>
       </c>
     </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
